--- a/Data Extraction And Loading/Program Files/Documentation/Data Loading CheckList (Incremental).xlsx
+++ b/Data Extraction And Loading/Program Files/Documentation/Data Loading CheckList (Incremental).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuck\Documents\ROC\Speedway-Source\Data Extraction And Loading\Program Files\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4BA8A8-C448-479B-8DF2-6DC0618E7FC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141782A8-5519-4C0F-9BF7-F1A9E90BE861}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="864" yWindow="360" windowWidth="21600" windowHeight="11652" xr2:uid="{35CC5D13-6FA0-4E86-8B8E-1E92ADCCBFD3}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="23010" windowHeight="12360" xr2:uid="{35CC5D13-6FA0-4E86-8B8E-1E92ADCCBFD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete Load" sheetId="1" r:id="rId1"/>
@@ -774,23 +774,23 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F24:F26"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="31.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="31.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="39.88671875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="47.77734375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="29.109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="38.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -813,7 +813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -836,7 +836,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -853,7 +853,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -876,7 +876,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -899,7 +899,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -919,7 +919,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -939,7 +939,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -985,7 +985,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1456,31 +1456,31 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
     </row>
   </sheetData>

--- a/Data Extraction And Loading/Program Files/Documentation/Data Loading CheckList (Incremental).xlsx
+++ b/Data Extraction And Loading/Program Files/Documentation/Data Loading CheckList (Incremental).xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuck\Documents\ROC\Speedway-Source\Data Extraction And Loading\Program Files\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141782A8-5519-4C0F-9BF7-F1A9E90BE861}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBF315A-70DF-4DF1-9EF5-CE2FDAD9FEC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="23010" windowHeight="12360" xr2:uid="{35CC5D13-6FA0-4E86-8B8E-1E92ADCCBFD3}"/>
+    <workbookView xWindow="375" yWindow="1095" windowWidth="23010" windowHeight="12360" xr2:uid="{35CC5D13-6FA0-4E86-8B8E-1E92ADCCBFD3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Complete Load" sheetId="1" r:id="rId1"/>
+    <sheet name="Incremental Load" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Complete Load'!$B$1:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Incremental Load'!$B$1:$D$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="111">
   <si>
     <t>Apply Discount Index Workaround</t>
   </si>
@@ -396,6 +396,10 @@
 2. Execute cmd files step 1 &amp; Step 2 and move the excel files located in the WorkingXLS folder to the FinalXLS folder.
 3.  Execute cmd files Step 3 &amp; Step 4.
 4.  Copy the xml files in the catalog ESO import directory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are two step cmd files for step 1, one for production and one for certification.  As an alternative to doing this step incrementally, you can attempt to load the catalog files.  If you receive an error indicating that the supplier is not found, just extract only the suppliers that are not found and then re-import the catalog.  This will avoid creating "empty" suppliers.
+</t>
   </si>
 </sst>
 </file>
@@ -773,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1047AD9-F645-470A-B450-40D485C14B1B}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1206,7 +1210,7 @@
         <v>77</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="105" x14ac:dyDescent="0.25">
